--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Hubspot_DE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B027CD07-D70D-48F8-84E6-A8DC933E3FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEE468A-6F99-47CA-8AFE-57E6A0909C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Checkbox">Tabelle1!$C$6:$D$24</definedName>
-    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$6:$Q$24,Tabelle1!$Q$27:$Q$35,Tabelle1!$I$27:$I$35,Tabelle1!$I$6:$I$24</definedName>
+    <definedName name="Checkbox">Tabelle1!$C$6:$D$28</definedName>
+    <definedName name="Field_Type">Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!#REF!,Tabelle1!$Q$6:$Q$28,Tabelle1!$Q$31:$Q$36,Tabelle1!$I$31:$I$36,Tabelle1!$I$6:$I$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
   <si>
     <t>snapADDY</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Pipeline-Phase</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
     <t>dealstage</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>Phase</t>
   </si>
   <si>
-    <t>Wert</t>
-  </si>
-  <si>
     <t>Firma</t>
   </si>
   <si>
@@ -218,6 +212,27 @@
   </si>
   <si>
     <t>Notizen</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Pflichfeld</t>
+  </si>
+  <si>
+    <t>Beispiel Pflichtfeld</t>
+  </si>
+  <si>
+    <t>Beispiel Nicht-benötigtes Feld</t>
+  </si>
+  <si>
+    <t>Nicht benötigt</t>
+  </si>
+  <si>
+    <t>Nicht Benötigt</t>
+  </si>
+  <si>
+    <t>(= Felder mit automatischem Wert)</t>
   </si>
 </sst>
 </file>
@@ -319,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -378,11 +393,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF9DA600"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9DA600"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9DA600"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
-      <right/>
-      <top style="thick">
+      <right style="thick">
+        <color rgb="FF9DA600"/>
+      </right>
+      <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
       <bottom style="thin">
@@ -394,25 +426,10 @@
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
       <bottom style="thin">
@@ -422,88 +439,6 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
       <right/>
@@ -515,17 +450,6 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF9DA600"/>
       </left>
       <right/>
@@ -868,43 +792,6 @@
         <color rgb="FFF87757"/>
       </left>
       <right/>
-      <top style="thick">
-        <color rgb="FFF87757"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF87757"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FFF87757"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF87757"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFF87757"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFF87757"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF87757"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFF87757"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FFF87757"/>
       </top>
@@ -1004,63 +891,6 @@
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFF87757"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFF87757"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFF87757"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FFF87757"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFF87757"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color theme="0"/>
       </left>
       <right style="thick">
@@ -1124,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1140,28 +970,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1174,108 +997,2306 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="212">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike/>
+        <color rgb="FFFE6C36"/>
+      </font>
+      <fill>
+        <patternFill patternType="darkDown">
+          <fgColor theme="0" tint="-0.14993743705557422"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u/>
+        <color rgb="FF9DA600"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1489,13 +3510,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1560,13 +3581,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1928,10 +3949,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795B0A9E-16D1-4F4A-842C-C5B0396BE825}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:CI36"/>
+  <dimension ref="A1:CI37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,894 +3987,1734 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="75"/>
-      <c r="G3" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
+        <v>32</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="G3" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="73"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="58"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
+      <c r="O3" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" spans="1:17" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="44" t="s">
+      <c r="Q5" s="34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="50"/>
+      <c r="A6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="G6" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="40"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="12"/>
-      <c r="G7" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="63" t="s">
+      <c r="A7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="63"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="63"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="14"/>
+      <c r="G7" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="63"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="40"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="12"/>
-      <c r="G9" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="61"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="63"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="63"/>
+      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="14"/>
+      <c r="G9" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="40"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="12"/>
-      <c r="G10" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="63"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="63"/>
+      <c r="A10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="14"/>
+      <c r="G10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="61"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="63"/>
+      <c r="A11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="14"/>
+      <c r="G11" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="38"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="40"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="40"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="12"/>
-      <c r="G12" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="63"/>
+      <c r="A12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="14"/>
+      <c r="G12" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="40"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="40"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="12"/>
-      <c r="G13" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="61"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="63"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="63"/>
+      <c r="A13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="14"/>
+      <c r="G13" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="38"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="40"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="12"/>
-      <c r="G14" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="61"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="63"/>
+      <c r="A14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="14"/>
+      <c r="G14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="40"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="40"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
-      <c r="K15" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="53"/>
+        <v>45</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="14"/>
+      <c r="G15" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="40"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="40"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="G16" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="63" t="s">
+      <c r="A16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="14"/>
+      <c r="G16" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="40"/>
+    </row>
+    <row r="17" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="14"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="K17" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="51"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="53"/>
-    </row>
-    <row r="17" spans="1:87" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="G17" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17"/>
-      <c r="K17" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="53"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17"/>
-      <c r="AF17"/>
-      <c r="AG17"/>
-      <c r="AH17"/>
-      <c r="AI17"/>
-      <c r="AJ17"/>
-      <c r="AK17"/>
-      <c r="AL17"/>
-      <c r="AM17"/>
-      <c r="AN17"/>
-      <c r="AO17"/>
-      <c r="AP17"/>
-      <c r="AQ17"/>
-      <c r="AR17"/>
-      <c r="AS17"/>
-      <c r="AT17"/>
-      <c r="AU17"/>
-      <c r="AV17"/>
-      <c r="AW17"/>
-      <c r="AX17"/>
-      <c r="AY17"/>
-      <c r="AZ17"/>
-      <c r="BA17"/>
-      <c r="BB17"/>
-      <c r="BC17"/>
-      <c r="BD17"/>
-      <c r="BE17"/>
-      <c r="BF17"/>
-      <c r="BG17"/>
-      <c r="BH17"/>
-      <c r="BI17"/>
-      <c r="BJ17"/>
-      <c r="BK17"/>
-      <c r="BL17"/>
-      <c r="BM17"/>
-      <c r="BN17"/>
-      <c r="BO17"/>
-      <c r="BP17"/>
-      <c r="BQ17"/>
-      <c r="BR17"/>
-      <c r="BS17"/>
-      <c r="BT17"/>
-      <c r="BU17"/>
-      <c r="BV17"/>
-      <c r="BW17"/>
-      <c r="BX17"/>
-      <c r="BY17"/>
-      <c r="BZ17"/>
-      <c r="CA17"/>
-      <c r="CB17"/>
-      <c r="CC17"/>
-      <c r="CD17"/>
-      <c r="CE17"/>
-      <c r="CF17"/>
-      <c r="CG17"/>
-      <c r="CH17"/>
-      <c r="CI17"/>
+      <c r="L17" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="38"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="14"/>
+      <c r="G18" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="38"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="40"/>
+    </row>
+    <row r="19" spans="1:87" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="G18" s="51" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="11"/>
+      <c r="F19"/>
+      <c r="G19" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="51"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="53"/>
-    </row>
-    <row r="19" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="G19" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="51"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="53"/>
+      <c r="L19" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="40"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
+      <c r="AP19"/>
+      <c r="AQ19"/>
+      <c r="AR19"/>
+      <c r="AS19"/>
+      <c r="AT19"/>
+      <c r="AU19"/>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19"/>
+      <c r="AY19"/>
+      <c r="AZ19"/>
+      <c r="BA19"/>
+      <c r="BB19"/>
+      <c r="BC19"/>
+      <c r="BD19"/>
+      <c r="BE19"/>
+      <c r="BF19"/>
+      <c r="BG19"/>
+      <c r="BH19"/>
+      <c r="BI19"/>
+      <c r="BJ19"/>
+      <c r="BK19"/>
+      <c r="BL19"/>
+      <c r="BM19"/>
+      <c r="BN19"/>
+      <c r="BO19"/>
+      <c r="BP19"/>
+      <c r="BQ19"/>
+      <c r="BR19"/>
+      <c r="BS19"/>
+      <c r="BT19"/>
+      <c r="BU19"/>
+      <c r="BV19"/>
+      <c r="BW19"/>
+      <c r="BX19"/>
+      <c r="BY19"/>
+      <c r="BZ19"/>
+      <c r="CA19"/>
+      <c r="CB19"/>
+      <c r="CC19"/>
+      <c r="CD19"/>
+      <c r="CE19"/>
+      <c r="CF19"/>
+      <c r="CG19"/>
+      <c r="CH19"/>
+      <c r="CI19"/>
     </row>
     <row r="20" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="G20" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="L20" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="51"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="53"/>
+      <c r="A20" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="14"/>
+      <c r="G20" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="38"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="40"/>
     </row>
     <row r="21" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
-      <c r="K21" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="M21" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="51"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="53"/>
+      <c r="A21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="14"/>
+      <c r="G21" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="38"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="40"/>
     </row>
     <row r="22" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="53"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="53"/>
-      <c r="O22" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="P22" s="52" t="s">
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="14"/>
+      <c r="G22" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="Q22" s="53" t="s">
-        <v>23</v>
-      </c>
+      <c r="K22" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="38"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="40"/>
     </row>
     <row r="23" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="14"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
+      <c r="K23" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="38"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="40"/>
+    </row>
+    <row r="24" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="14"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="40"/>
+      <c r="O24" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q24" s="40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="53"/>
-      <c r="O23" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="P23" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q23" s="53" t="s">
-        <v>23</v>
+      <c r="B25" s="49"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="40"/>
+      <c r="O25" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="40" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="56"/>
-      <c r="O24" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="P24" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="56" t="s">
-        <v>23</v>
-      </c>
+    <row r="26" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="40"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="40"/>
     </row>
-    <row r="25" spans="1:87" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G25" s="35"/>
-      <c r="I25" s="36"/>
-      <c r="K25" s="35"/>
-      <c r="M25" s="36"/>
-      <c r="O25" s="35"/>
-      <c r="Q25" s="36"/>
+    <row r="27" spans="1:87" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="40"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="40"/>
     </row>
-    <row r="26" spans="1:87" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="57" t="s">
+    <row r="28" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="43"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="43"/>
+    </row>
+    <row r="29" spans="1:87" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="K29" s="25"/>
+      <c r="M29" s="26"/>
+      <c r="O29" s="25"/>
+      <c r="Q29" s="26"/>
+    </row>
+    <row r="30" spans="1:87" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B30" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37" t="s">
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G30" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="46" t="s">
+      <c r="H30" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="I30" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K26" s="42" t="s">
+      <c r="K30" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="43" t="s">
+      <c r="L30" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="44" t="s">
+      <c r="M30" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="O26" s="42" t="s">
+      <c r="O30" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="P26" s="43" t="s">
+      <c r="P30" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" s="44" t="s">
+      <c r="Q30" s="34" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:87" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="39"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="53"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="53"/>
-      <c r="O27" s="51"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="53"/>
-    </row>
-    <row r="28" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="39"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="53"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="53"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="53"/>
-    </row>
-    <row r="29" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="39"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="53"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="53"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="53"/>
-    </row>
-    <row r="30" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="39"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="53"/>
-      <c r="O30" s="51"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="53"/>
-    </row>
-    <row r="31" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="39"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="53"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="52"/>
-      <c r="Q31" s="53"/>
+    <row r="31" spans="1:87" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="53"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="29"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="40"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="40"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="40"/>
     </row>
     <row r="32" spans="1:87" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="39"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="53"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="53"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="53"/>
+      <c r="A32" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="29"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="40"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="40"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="39"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="52"/>
-      <c r="M33" s="53"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="53"/>
+      <c r="A33" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="29"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="40"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="40"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="40"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="39"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="53"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="53"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="29"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="40"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="40"/>
+      <c r="O34" s="38"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="40"/>
     </row>
-    <row r="35" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="41"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="56"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="56"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="56"/>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="29"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="40"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="40"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="40"/>
     </row>
-    <row r="36" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="30"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="31"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="43"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="43"/>
+    </row>
+    <row r="37" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A6:R24" name="Contact Fields"/>
-    <protectedRange sqref="F27:J29 K27:R35 A30:J35" name="Questionnaire"/>
-    <protectedRange sqref="A27:E29" name="Questionnaire_1"/>
+    <protectedRange sqref="A6:R28" name="Contact Fields"/>
+    <protectedRange sqref="F31:J34 A35:J36 K31:R36" name="Questionnaire"/>
+    <protectedRange sqref="A31:E34" name="Questionnaire_1"/>
   </protectedRanges>
-  <mergeCells count="12">
+  <mergeCells count="9">
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B30:D30"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B33:D33"/>
   </mergeCells>
-  <conditionalFormatting sqref="A24:J25 B15:J15 O15:Z16 O18:Z25 O17:R17 B21:J23 B16:H20 J16:J20">
-    <cfRule type="expression" dxfId="9" priority="25">
+  <conditionalFormatting sqref="A29:J29 O29:Z29 B28:E28 C17:C24 E6:E24 G18:H27 C25:E27 N17:N28 K23:K27 O23:O27 L18:L27 P18:P27">
+    <cfRule type="expression" dxfId="211" priority="265">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="210" priority="266">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O31:Q36 G31:I36 K31:M36">
+    <cfRule type="expression" dxfId="209" priority="257">
+      <formula>$C31="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="208" priority="258">
+      <formula>$D31="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A27 B9:B27">
+    <cfRule type="expression" dxfId="207" priority="253">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="206" priority="254">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:N29">
+    <cfRule type="expression" dxfId="205" priority="245">
+      <formula>$C29="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="204" priority="246">
+      <formula>$D29="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="expression" dxfId="203" priority="237">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="202" priority="238">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="expression" dxfId="201" priority="229">
+      <formula>$C22="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="200" priority="230">
+      <formula>$D22="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="expression" dxfId="199" priority="227">
+      <formula>$C21="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="198" priority="228">
+      <formula>$D21="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="197" priority="225">
+      <formula>$C20="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="196" priority="226">
+      <formula>$D20="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="expression" dxfId="195" priority="223">
+      <formula>$C19="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="194" priority="224">
+      <formula>$D19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="expression" dxfId="193" priority="221">
+      <formula>$C18="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="192" priority="222">
+      <formula>$D18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="expression" dxfId="191" priority="219">
+      <formula>$C17="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="190" priority="220">
+      <formula>$D17="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="expression" dxfId="189" priority="217">
+      <formula>$C16="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="188" priority="218">
+      <formula>$D16="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="expression" dxfId="187" priority="215">
       <formula>$C15="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="26">
+    <cfRule type="expression" dxfId="186" priority="216">
       <formula>$D15="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O27:Q35 G27:I35 K27:M35">
-    <cfRule type="expression" dxfId="7" priority="17">
+  <conditionalFormatting sqref="I14">
+    <cfRule type="expression" dxfId="185" priority="213">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="214">
+      <formula>$D14="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="expression" dxfId="183" priority="211">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="182" priority="212">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="expression" dxfId="181" priority="209">
+      <formula>$C12="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="180" priority="210">
+      <formula>$D12="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="expression" dxfId="179" priority="207">
+      <formula>$C11="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="178" priority="208">
+      <formula>$D11="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="expression" dxfId="177" priority="205">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="176" priority="206">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="expression" dxfId="175" priority="203">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="204">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="expression" dxfId="173" priority="201">
+      <formula>$C23="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="172" priority="202">
+      <formula>$D23="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="171" priority="199">
+      <formula>$C24="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="200">
+      <formula>$D24="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="expression" dxfId="169" priority="197">
+      <formula>$C25="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="198">
+      <formula>$D25="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="expression" dxfId="167" priority="193">
+      <formula>$C26="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="166" priority="194">
+      <formula>$D26="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="expression" dxfId="165" priority="191">
       <formula>$C27="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="18">
+    <cfRule type="expression" dxfId="164" priority="192">
       <formula>$D27="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:A23">
-    <cfRule type="expression" dxfId="5" priority="13">
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="expression" dxfId="163" priority="75">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="76">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P28">
+    <cfRule type="expression" dxfId="161" priority="57">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="58">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="expression" dxfId="159" priority="139">
+      <formula>$C17="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="158" priority="140">
+      <formula>$D17="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="expression" dxfId="157" priority="137">
+      <formula>$C16="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="138">
+      <formula>$D16="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="expression" dxfId="155" priority="135">
       <formula>$C15="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="154" priority="136">
       <formula>$D15="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:N25">
+  <conditionalFormatting sqref="A16">
+    <cfRule type="expression" dxfId="153" priority="177">
+      <formula>$C16="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="178">
+      <formula>$D16="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A15">
+    <cfRule type="expression" dxfId="151" priority="175">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="176">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:G17">
+    <cfRule type="expression" dxfId="149" priority="173">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="148" priority="174">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="expression" dxfId="147" priority="171">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="146" priority="172">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="145" priority="1">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="2">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="expression" dxfId="143" priority="169">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="142" priority="170">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H17">
+    <cfRule type="expression" dxfId="141" priority="167">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="168">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="expression" dxfId="139" priority="165">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="166">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K22">
+    <cfRule type="expression" dxfId="137" priority="163">
+      <formula>$C18="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="164">
+      <formula>$D18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:K17">
+    <cfRule type="expression" dxfId="135" priority="161">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="134" priority="162">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="expression" dxfId="133" priority="159">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="132" priority="160">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O22">
+    <cfRule type="expression" dxfId="131" priority="157">
+      <formula>$C18="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="130" priority="158">
+      <formula>$D18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:O17">
+    <cfRule type="expression" dxfId="129" priority="155">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="156">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O28">
+    <cfRule type="expression" dxfId="127" priority="153">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="154">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22">
+    <cfRule type="expression" dxfId="125" priority="149">
+      <formula>$C22="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="150">
+      <formula>$D22="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="expression" dxfId="123" priority="147">
+      <formula>$C21="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="122" priority="148">
+      <formula>$D21="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="expression" dxfId="121" priority="145">
+      <formula>$C20="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="146">
+      <formula>$D20="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="expression" dxfId="119" priority="143">
+      <formula>$C19="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="144">
+      <formula>$D19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="expression" dxfId="117" priority="141">
+      <formula>$C18="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="142">
+      <formula>$D18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="expression" dxfId="115" priority="133">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="134">
+      <formula>$D14="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="expression" dxfId="113" priority="131">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="132">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="expression" dxfId="111" priority="129">
+      <formula>$C12="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="130">
+      <formula>$D12="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="expression" dxfId="109" priority="127">
+      <formula>$C11="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="128">
+      <formula>$D11="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="expression" dxfId="107" priority="125">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="126">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="expression" dxfId="105" priority="123">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="124">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23">
+    <cfRule type="expression" dxfId="103" priority="121">
+      <formula>$C23="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="122">
+      <formula>$D23="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24">
+    <cfRule type="expression" dxfId="101" priority="119">
+      <formula>$C24="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="100" priority="120">
+      <formula>$D24="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25">
+    <cfRule type="expression" dxfId="99" priority="117">
+      <formula>$C25="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="118">
+      <formula>$D25="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="expression" dxfId="97" priority="113">
+      <formula>$C26="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="114">
+      <formula>$D26="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27">
+    <cfRule type="expression" dxfId="95" priority="111">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="112">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M28">
+    <cfRule type="expression" dxfId="93" priority="109">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="110">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:L17">
+    <cfRule type="expression" dxfId="91" priority="107">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="108">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28">
+    <cfRule type="expression" dxfId="89" priority="105">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="106">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22">
+    <cfRule type="expression" dxfId="87" priority="101">
+      <formula>$C22="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="102">
+      <formula>$D22="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="expression" dxfId="85" priority="99">
+      <formula>$C21="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="100">
+      <formula>$D21="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20">
+    <cfRule type="expression" dxfId="83" priority="97">
+      <formula>$C20="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="98">
+      <formula>$D20="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="expression" dxfId="81" priority="95">
+      <formula>$C19="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="96">
+      <formula>$D19="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18">
+    <cfRule type="expression" dxfId="79" priority="93">
+      <formula>$C18="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="94">
+      <formula>$D18="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17">
+    <cfRule type="expression" dxfId="77" priority="91">
+      <formula>$C17="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="92">
+      <formula>$D17="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16">
+    <cfRule type="expression" dxfId="75" priority="89">
+      <formula>$C16="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="90">
+      <formula>$D16="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q15">
+    <cfRule type="expression" dxfId="73" priority="87">
+      <formula>$C15="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="88">
+      <formula>$D15="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="expression" dxfId="71" priority="85">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="86">
+      <formula>$D14="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13">
+    <cfRule type="expression" dxfId="69" priority="83">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="84">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12">
+    <cfRule type="expression" dxfId="67" priority="81">
+      <formula>$C12="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="82">
+      <formula>$D12="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11">
+    <cfRule type="expression" dxfId="65" priority="79">
+      <formula>$C11="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="80">
+      <formula>$D11="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="expression" dxfId="63" priority="77">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="78">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23">
+    <cfRule type="expression" dxfId="61" priority="73">
+      <formula>$C23="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="74">
+      <formula>$D23="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q24">
+    <cfRule type="expression" dxfId="59" priority="71">
+      <formula>$C24="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="72">
+      <formula>$D24="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25">
+    <cfRule type="expression" dxfId="57" priority="69">
+      <formula>$C25="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="70">
+      <formula>$D25="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q26">
+    <cfRule type="expression" dxfId="55" priority="65">
+      <formula>$C26="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="66">
+      <formula>$D26="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27">
+    <cfRule type="expression" dxfId="53" priority="63">
+      <formula>$C27="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="64">
+      <formula>$D27="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28">
+    <cfRule type="expression" dxfId="51" priority="61">
+      <formula>$C28="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="62">
+      <formula>$D28="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9:P17">
+    <cfRule type="expression" dxfId="49" priority="59">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="60">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I8">
+    <cfRule type="expression" dxfId="47" priority="55">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="56">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6 G8">
+    <cfRule type="expression" dxfId="45" priority="53">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="54">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H8">
+    <cfRule type="expression" dxfId="43" priority="51">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="52">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="expression" dxfId="41" priority="27">
+      <formula>$C8="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="28">
+      <formula>$D8="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="39" priority="43">
+      <formula>$C9="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="44">
+      <formula>$D9="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D24">
+    <cfRule type="expression" dxfId="37" priority="41">
+      <formula>$C10="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="42">
+      <formula>$D10="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D8">
+    <cfRule type="expression" dxfId="35" priority="39">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="40">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="expression" dxfId="33" priority="37">
+      <formula>$C13="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="38">
+      <formula>$D13="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C12">
+    <cfRule type="expression" dxfId="31" priority="35">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="36">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="29" priority="33">
+      <formula>$C16="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="34">
+      <formula>$D16="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="27" priority="31">
+      <formula>$C15="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="32">
+      <formula>$D15="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="25" priority="29">
+      <formula>$C14="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="30">
+      <formula>$D14="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="26">
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A8">
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="24">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="20">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M8">
+    <cfRule type="expression" dxfId="15" priority="17">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="18">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K8">
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="16">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L8">
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:Q8">
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O8">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:P8">
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$C6="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>$D6="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
     <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$C15="x"</formula>
+      <formula>$C7="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>$D15="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S17:Z17">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C17="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D17="x"</formula>
+      <formula>$D7="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$C7="x"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>$D7="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D24" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I28 Q6:Q28 M6:M28 M31:M36 I31:I36 Q31:Q36" xr:uid="{0722DBF3-9EE4-442F-BA8D-01D5DFDA13AC}">
+      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D28" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M24 Q6:Q24 I6:I24 I27:I35 Q27:Q35 M27:M35" xr:uid="{0722DBF3-9EE4-442F-BA8D-01D5DFDA13AC}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Hubspot_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEE468A-6F99-47CA-8AFE-57E6A0909C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11E20F1-46C8-4A8C-823E-2C33AE4F511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1043,14 +1043,14 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1061,14 +1061,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3951,37 +3951,37 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:CI37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.6640625" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G2" s="2"/>
       <c r="K2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="77.400000000000006" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3993,26 +3993,26 @@
         <v>33</v>
       </c>
       <c r="E3" s="48"/>
-      <c r="G3" s="56" t="s">
+      <c r="G3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="5"/>
-      <c r="O3" s="56" t="s">
+      <c r="O3" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="52"/>
     </row>
-    <row r="4" spans="1:17" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="45" t="s">
         <v>1</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>62</v>
       </c>
@@ -4080,7 +4080,7 @@
       <c r="P6" s="39"/>
       <c r="Q6" s="40"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>61</v>
       </c>
@@ -4108,7 +4108,7 @@
       <c r="P7" s="39"/>
       <c r="Q7" s="40"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="49"/>
       <c r="C8" s="10"/>
@@ -4124,7 +4124,7 @@
       <c r="P8" s="39"/>
       <c r="Q8" s="40"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
@@ -4148,7 +4148,7 @@
       <c r="P9" s="39"/>
       <c r="Q9" s="40"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>40</v>
       </c>
@@ -4172,7 +4172,7 @@
       <c r="P10" s="39"/>
       <c r="Q10" s="40"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>41</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="P11" s="39"/>
       <c r="Q11" s="40"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
@@ -4220,7 +4220,7 @@
       <c r="P12" s="39"/>
       <c r="Q12" s="40"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
@@ -4250,7 +4250,7 @@
       <c r="P13" s="39"/>
       <c r="Q13" s="40"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>44</v>
       </c>
@@ -4274,7 +4274,7 @@
       <c r="P14" s="39"/>
       <c r="Q14" s="40"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
@@ -4298,7 +4298,7 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="40"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="P16" s="39"/>
       <c r="Q16" s="40"/>
     </row>
-    <row r="17" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -4346,7 +4346,7 @@
       <c r="P17" s="39"/>
       <c r="Q17" s="40"/>
     </row>
-    <row r="18" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>31</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="P18" s="39"/>
       <c r="Q18" s="40"/>
     </row>
-    <row r="19" spans="1:87" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:87" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
@@ -4479,7 +4479,7 @@
       <c r="CH19"/>
       <c r="CI19"/>
     </row>
-    <row r="20" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
@@ -4509,7 +4509,7 @@
       <c r="P20" s="39"/>
       <c r="Q20" s="40"/>
     </row>
-    <row r="21" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="P21" s="39"/>
       <c r="Q21" s="40"/>
     </row>
-    <row r="22" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
@@ -4569,7 +4569,7 @@
       <c r="P22" s="39"/>
       <c r="Q22" s="40"/>
     </row>
-    <row r="23" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>7</v>
       </c>
@@ -4593,7 +4593,7 @@
       <c r="P23" s="39"/>
       <c r="Q23" s="40"/>
     </row>
-    <row r="24" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>6</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>19</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="49"/>
       <c r="C26" s="17"/>
@@ -4657,7 +4657,7 @@
       <c r="P26" s="39"/>
       <c r="Q26" s="40"/>
     </row>
-    <row r="27" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="49"/>
       <c r="C27" s="17"/>
@@ -4673,7 +4673,7 @@
       <c r="P27" s="39"/>
       <c r="Q27" s="40"/>
     </row>
-    <row r="28" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -4689,7 +4689,7 @@
       <c r="P28" s="42"/>
       <c r="Q28" s="43"/>
     </row>
-    <row r="29" spans="1:87" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:87" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G29" s="25"/>
       <c r="I29" s="26"/>
       <c r="K29" s="25"/>
@@ -4697,7 +4697,7 @@
       <c r="O29" s="25"/>
       <c r="Q29" s="26"/>
     </row>
-    <row r="30" spans="1:87" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:87" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44" t="s">
         <v>8</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:87" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:87" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>65</v>
       </c>
@@ -4755,7 +4755,7 @@
       <c r="P31" s="39"/>
       <c r="Q31" s="40"/>
     </row>
-    <row r="32" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>34</v>
       </c>
@@ -4775,7 +4775,7 @@
       <c r="P32" s="39"/>
       <c r="Q32" s="40"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>36</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="P33" s="39"/>
       <c r="Q33" s="40"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" s="53"/>
       <c r="C34" s="54"/>
@@ -4811,7 +4811,7 @@
       <c r="P34" s="39"/>
       <c r="Q34" s="40"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="53"/>
       <c r="C35" s="54"/>
@@ -4827,11 +4827,11 @@
       <c r="P35" s="39"/>
       <c r="Q35" s="40"/>
     </row>
-    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="30"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="52"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="31"/>
       <c r="G36" s="41"/>
       <c r="H36" s="42"/>
@@ -4843,7 +4843,7 @@
       <c r="P36" s="42"/>
       <c r="Q36" s="43"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A6:R28" name="Contact Fields"/>

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Hubspot_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11E20F1-46C8-4A8C-823E-2C33AE4F511D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C442902A-9B4E-42B6-A656-FAE84E0B0E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -3951,37 +3951,37 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:CI37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="1.5703125" customWidth="1"/>
     <col min="7" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="1.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" customWidth="1"/>
     <col min="11" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="1.5703125" customWidth="1"/>
     <col min="15" max="17" width="15" customWidth="1"/>
-    <col min="18" max="18" width="1.6640625" customWidth="1"/>
+    <col min="18" max="18" width="1.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G2" s="2"/>
       <c r="K2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="77.400000000000006" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -4011,8 +4011,8 @@
       <c r="P3" s="51"/>
       <c r="Q3" s="52"/>
     </row>
-    <row r="4" spans="1:17" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:17" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>1</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>62</v>
       </c>
@@ -4080,7 +4080,7 @@
       <c r="P6" s="39"/>
       <c r="Q6" s="40"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>61</v>
       </c>
@@ -4108,7 +4108,7 @@
       <c r="P7" s="39"/>
       <c r="Q7" s="40"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="49"/>
       <c r="C8" s="10"/>
@@ -4124,7 +4124,7 @@
       <c r="P8" s="39"/>
       <c r="Q8" s="40"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>39</v>
       </c>
@@ -4148,7 +4148,7 @@
       <c r="P9" s="39"/>
       <c r="Q9" s="40"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>40</v>
       </c>
@@ -4172,7 +4172,7 @@
       <c r="P10" s="39"/>
       <c r="Q10" s="40"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>41</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="P11" s="39"/>
       <c r="Q11" s="40"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
@@ -4220,7 +4220,7 @@
       <c r="P12" s="39"/>
       <c r="Q12" s="40"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
@@ -4250,7 +4250,7 @@
       <c r="P13" s="39"/>
       <c r="Q13" s="40"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>44</v>
       </c>
@@ -4274,7 +4274,7 @@
       <c r="P14" s="39"/>
       <c r="Q14" s="40"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
@@ -4298,7 +4298,7 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="40"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>46</v>
       </c>
@@ -4322,7 +4322,7 @@
       <c r="P16" s="39"/>
       <c r="Q16" s="40"/>
     </row>
-    <row r="17" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
@@ -4346,7 +4346,7 @@
       <c r="P17" s="39"/>
       <c r="Q17" s="40"/>
     </row>
-    <row r="18" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>31</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="P18" s="39"/>
       <c r="Q18" s="40"/>
     </row>
-    <row r="19" spans="1:87" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:87" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
@@ -4479,7 +4479,7 @@
       <c r="CH19"/>
       <c r="CI19"/>
     </row>
-    <row r="20" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
@@ -4509,7 +4509,7 @@
       <c r="P20" s="39"/>
       <c r="Q20" s="40"/>
     </row>
-    <row r="21" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="P21" s="39"/>
       <c r="Q21" s="40"/>
     </row>
-    <row r="22" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
@@ -4569,7 +4569,7 @@
       <c r="P22" s="39"/>
       <c r="Q22" s="40"/>
     </row>
-    <row r="23" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>7</v>
       </c>
@@ -4593,7 +4593,7 @@
       <c r="P23" s="39"/>
       <c r="Q23" s="40"/>
     </row>
-    <row r="24" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>6</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>19</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="49"/>
       <c r="C26" s="17"/>
@@ -4657,7 +4657,7 @@
       <c r="P26" s="39"/>
       <c r="Q26" s="40"/>
     </row>
-    <row r="27" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="49"/>
       <c r="C27" s="17"/>
@@ -4673,7 +4673,7 @@
       <c r="P27" s="39"/>
       <c r="Q27" s="40"/>
     </row>
-    <row r="28" spans="1:87" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
       <c r="C28" s="22"/>
@@ -4689,7 +4689,7 @@
       <c r="P28" s="42"/>
       <c r="Q28" s="43"/>
     </row>
-    <row r="29" spans="1:87" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:87" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G29" s="25"/>
       <c r="I29" s="26"/>
       <c r="K29" s="25"/>
@@ -4697,7 +4697,7 @@
       <c r="O29" s="25"/>
       <c r="Q29" s="26"/>
     </row>
-    <row r="30" spans="1:87" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:87" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
         <v>8</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:87" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:87" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
         <v>65</v>
       </c>
@@ -4755,7 +4755,7 @@
       <c r="P31" s="39"/>
       <c r="Q31" s="40"/>
     </row>
-    <row r="32" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
         <v>34</v>
       </c>
@@ -4775,7 +4775,7 @@
       <c r="P32" s="39"/>
       <c r="Q32" s="40"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>36</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="P33" s="39"/>
       <c r="Q33" s="40"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
       <c r="B34" s="53"/>
       <c r="C34" s="54"/>
@@ -4811,7 +4811,7 @@
       <c r="P34" s="39"/>
       <c r="Q34" s="40"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="53"/>
       <c r="C35" s="54"/>
@@ -4827,7 +4827,7 @@
       <c r="P35" s="39"/>
       <c r="Q35" s="40"/>
     </row>
-    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="56"/>
       <c r="C36" s="57"/>
@@ -4843,7 +4843,7 @@
       <c r="P36" s="42"/>
       <c r="Q36" s="43"/>
     </row>
-    <row r="37" spans="1:17" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <protectedRanges>
     <protectedRange sqref="A6:R28" name="Contact Fields"/>

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Hubspot_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_Hubspot_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C442902A-9B4E-42B6-A656-FAE84E0B0E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C79954-B848-4ED3-8A85-8774177410EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4740A9B0-2E57-42FE-A57B-C2BAD0638104}"/>
   </bookViews>
@@ -3951,8 +3951,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:CI37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5710,11 +5710,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I28 Q6:Q28 M6:M28 M31:M36 I31:I36 Q31:Q36" xr:uid="{0722DBF3-9EE4-442F-BA8D-01D5DFDA13AC}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D28" xr:uid="{2F7FE776-7F87-432C-9F15-37A73F22AC1A}">
       <formula1>"x"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I28 M6:M28 Q6:Q28 Q31:Q36 M31:M36 I31:I36" xr:uid="{86B9CCEA-7FAA-40F7-9258-09E2EBCFCE58}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
